--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_N_first_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_N_first_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9C13E4-0BEC-4F83-BADC-90BC1604592F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11F737F-C9B1-47D8-A072-BE6F6D591540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{D04B2671-2E4C-4ACF-8606-9C289D9DCFA0}"/>
   </bookViews>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0.19047619047619047</v>
@@ -563,28 +563,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>0.20833333333333334</v>
@@ -633,16 +633,16 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>0.13953488372093023</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0.19047619047619047</v>
@@ -727,40 +727,40 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -774,16 +774,16 @@
         <v>52</v>
       </c>
       <c r="D8">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>9.6153846153846159E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0.17307692307692307</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -879,16 +879,16 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0.15789473684210525</v>
@@ -897,22 +897,22 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -944,16 +944,16 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>0.25641025641025639</v>
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0.17857142857142858</v>
@@ -991,22 +991,22 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1020,22 +1020,22 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.23809523809523808</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.22727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1161,40 +1161,40 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.19230769230769232</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0.19230769230769232</v>
@@ -1302,28 +1302,28 @@
         <v>52</v>
       </c>
       <c r="D20">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>9.6153846153846159E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>9.6153846153846159E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>9.6153846153846159E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>0.13461538461538461</v>
@@ -1349,16 +1349,16 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <v>0.11904761904761904</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0.14285714285714285</v>
@@ -1396,22 +1396,22 @@
         <v>43</v>
       </c>
       <c r="D22">
-        <v>0.11627906976744186</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>0.11627906976744186</v>
@@ -1472,10 +1472,10 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>0.15384615384615385</v>
@@ -1490,16 +1490,16 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>0.12820512820512819</v>
@@ -1554,28 +1554,28 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0.37931034482758619</v>
@@ -1624,10 +1624,10 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>9.6153846153846159E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0.11538461538461539</v>
@@ -1671,28 +1671,28 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>0.1111111111111111</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.1111111111111111</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>0.1111111111111111</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0.1111111111111111</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0.11904761904761904</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1765,10 +1765,10 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>0.14705882352941177</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>0.14705882352941177</v>
@@ -1783,10 +1783,10 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <v>0.14705882352941177</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0.14705882352941177</v>
@@ -1812,40 +1812,40 @@
         <v>62</v>
       </c>
       <c r="D32">
-        <v>8.0645161290322578E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>8.0645161290322578E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>0.12820512820512819</v>
@@ -1976,28 +1976,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2011,34 +2011,34 @@
         <v>25</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0.2</v>
@@ -2058,16 +2058,16 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>0.4375</v>
@@ -2105,40 +2105,40 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2152,40 +2152,40 @@
         <v>32</v>
       </c>
       <c r="D40">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2199,40 +2199,40 @@
         <v>41</v>
       </c>
       <c r="D41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.12195121951219512</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.12195121951219512</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2246,34 +2246,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>0.10869565217391304</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0.10869565217391304</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>0.10869565217391304</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>0.10869565217391304</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0.10869565217391304</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>0.17391304347826086</v>
@@ -2311,10 +2311,10 @@
         <v>14</v>
       </c>
       <c r="J43">
-        <v>5.2083333333333336E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>5.2083333333333336E-2</v>
@@ -2340,16 +2340,16 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>0.2</v>
@@ -2358,22 +2358,22 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2387,22 +2387,22 @@
         <v>28</v>
       </c>
       <c r="D45">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>0.42857142857142855</v>
@@ -2434,16 +2434,16 @@
         <v>22</v>
       </c>
       <c r="D46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>0.22727272727272727</v>
@@ -2452,22 +2452,22 @@
         <v>5</v>
       </c>
       <c r="J46">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0.15151515151515152</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2528,16 +2528,16 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0.23076923076923078</v>
@@ -2546,22 +2546,22 @@
         <v>9</v>
       </c>
       <c r="J48">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2575,16 +2575,16 @@
         <v>56</v>
       </c>
       <c r="D49">
-        <v>8.9285714285714288E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0.14285714285714285</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
         <v>0.10714285714285714</v>
@@ -2622,10 +2622,10 @@
         <v>47</v>
       </c>
       <c r="D50">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0.14893617021276595</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2669,10 +2669,10 @@
         <v>45</v>
       </c>
       <c r="D51">
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <v>0.1111111111111111</v>
@@ -2687,16 +2687,16 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>0.1111111111111111</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51">
         <v>0.1111111111111111</v>
@@ -2716,10 +2716,10 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>0.125</v>
@@ -2734,22 +2734,22 @@
         <v>8</v>
       </c>
       <c r="J52">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2769,28 +2769,28 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <v>0.15151515151515152</v>
@@ -2810,40 +2810,40 @@
         <v>38</v>
       </c>
       <c r="D54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2863,28 +2863,28 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0.17241379310344829</v>
